--- a/experiment/output/results/PACS/RSC/SDG/0_2_3.xlsx
+++ b/experiment/output/results/PACS/RSC/SDG/0_2_3.xlsx
@@ -552,23 +552,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>250131_12-14-53_resnet50_EVE</t>
+          <t>250213_22-12-09_resnet50_GENIE</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75.407</v>
+        <v>82.449</v>
       </c>
       <c r="E4" t="n">
-        <v>75.241</v>
+        <v>80.361</v>
       </c>
       <c r="F4" t="n">
-        <v>72.29000000000001</v>
+        <v>79.84399999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/output/results/PACS/RSC/SDG/0_2_3.xlsx
+++ b/experiment/output/results/PACS/RSC/SDG/0_2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,6 +571,134 @@
         <v>20</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>250217_20-25-11_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>66.953</v>
+      </c>
+      <c r="F5" t="n">
+        <v>66.91</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>250217_19-55-42_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>76.66200000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>250217_20-53-27_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>75.28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75.28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64.669</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RSC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0_2_3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>250217_19-27-06_resnet50_GENIE</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>75.024</v>
+      </c>
+      <c r="E8" t="n">
+        <v>71.045</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.033</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
